--- a/src/main/resources/outputData.xlsx
+++ b/src/main/resources/outputData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
